--- a/샘플데이터/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
+++ b/샘플데이터/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서대여 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="2" r:id="rId1"/>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F12"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="36">
-        <v>44315</v>
+        <v>44356</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F11"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="36">
-        <v>44315</v>
+        <v>44356</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="36">
-        <v>44315</v>
+        <v>44356</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
